--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825580.4649464822</v>
+        <v>757146.5514982929</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247233.9834525222</v>
+        <v>204405.4581289311</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>74.21245223256827</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="H5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.7990089648823</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1150,58 +1150,58 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>58.39471844666255</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>149.2992955570994</v>
+        <v>156.4280676246903</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>247.8767211222546</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>287.54023075833</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.96179990688165</v>
+        <v>139.0159503176652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>102.8535291564769</v>
       </c>
       <c r="E17" t="n">
-        <v>208.0055861732529</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>84.2213917249865</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>165.3828938949071</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.94389492651033</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6.028559943668204</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>155.3197306044666</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>111.9273983130127</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>7.456147600969725</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>78.41404262324698</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
-        <v>133.675685265885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.302546532492958</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>118.2537958723258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>9.790440613649851</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>118.1333893155622</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>312.4775512117487</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>54.47555601903409</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>32.88118763165993</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,16 +3322,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>236.8662161487763</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.36390763391826</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731075</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>249.02761525656</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>59.0322609154504</v>
+        <v>196.6482960948747</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2713935802969</v>
+        <v>238.4419995287274</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>221.0021786982966</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.42438893504242</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>162.3364906735233</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4372,10 +4372,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.9255531013317</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>613.4725238202047</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>464.5381141589534</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>787.9255531013317</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>787.9255531013317</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>787.9255531013317</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9255531013317</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>787.9255531013317</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984126</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984126</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984126</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984126</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4582,37 +4582,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185848</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424087</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>710.5167634983088</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084026</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084026</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>781.413677897285</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="T6" t="n">
-        <v>816.6559320512295</v>
+        <v>964.0571555106358</v>
       </c>
       <c r="U6" t="n">
-        <v>816.6559320512295</v>
+        <v>735.8335372470249</v>
       </c>
       <c r="V6" t="n">
-        <v>816.6559320512295</v>
+        <v>500.6814290152822</v>
       </c>
       <c r="W6" t="n">
-        <v>816.6559320512295</v>
+        <v>257.2326523711822</v>
       </c>
       <c r="X6" t="n">
-        <v>816.6559320512295</v>
+        <v>49.38115216564938</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>122.296149021135</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P8" t="n">
         <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>960.7588564629626</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>960.7588564629626</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S8" t="n">
-        <v>749.6274730425127</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T8" t="n">
-        <v>749.6274730425127</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>749.6274730425127</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>749.6274730425127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="W8" t="n">
-        <v>749.6274730425127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.5415416409351</v>
+        <v>178.0434248788472</v>
       </c>
       <c r="C9" t="n">
-        <v>170.0885123598081</v>
+        <v>178.0434248788472</v>
       </c>
       <c r="D9" t="n">
-        <v>170.0885123598081</v>
+        <v>178.0434248788472</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
         <v>964.057155510636</v>
@@ -4913,22 +4913,22 @@
         <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U9" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="V9" t="n">
-        <v>964.057155510636</v>
+        <v>761.870560869402</v>
       </c>
       <c r="W9" t="n">
-        <v>720.608378866536</v>
+        <v>761.870560869402</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610032</v>
+        <v>554.0190606638691</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.7568786610032</v>
+        <v>346.2587618989152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>722.2873163082934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>722.2873163082934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>722.2873163082934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>722.2873163082934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>722.2873163082934</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>304.3235082064803</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W11" t="n">
-        <v>1485.892406545185</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X11" t="n">
-        <v>1112.426648284105</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y11" t="n">
-        <v>722.2873163082934</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="12">
@@ -5138,25 +5138,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>63.8323157735459</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>63.8323157735459</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1160.852583904132</v>
+        <v>1778.063616086466</v>
       </c>
       <c r="C14" t="n">
-        <v>791.8900669637198</v>
+        <v>1409.101099146055</v>
       </c>
       <c r="D14" t="n">
-        <v>433.6243683569693</v>
+        <v>1409.101099146055</v>
       </c>
       <c r="E14" t="n">
-        <v>433.6243683569693</v>
+        <v>1023.312846547811</v>
       </c>
       <c r="F14" t="n">
-        <v>433.6243683569693</v>
+        <v>612.326941758203</v>
       </c>
       <c r="G14" t="n">
-        <v>433.6243683569693</v>
+        <v>194.3631336563899</v>
       </c>
       <c r="H14" t="n">
-        <v>106.4296483929722</v>
+        <v>194.3631336563899</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W14" t="n">
-        <v>2311.057514205145</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X14" t="n">
-        <v>1937.591755944065</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y14" t="n">
-        <v>1547.452423968253</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>991.2778500677821</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C17" t="n">
-        <v>622.3153331273704</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D17" t="n">
-        <v>264.0496345206199</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y17" t="n">
-        <v>991.2778500677821</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
@@ -5588,31 +5588,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2669.933035536898</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2669.933035536898</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2669.933035536898</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.164380266784</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E22" t="n">
-        <v>2362.69689653384</v>
+        <v>217.7808088763881</v>
       </c>
       <c r="F22" t="n">
-        <v>2362.69689653384</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>2362.69689653384</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y22" t="n">
-        <v>2362.69689653384</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>995.9506728057374</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C23" t="n">
-        <v>995.9506728057374</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X23" t="n">
-        <v>1386.090004781549</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y23" t="n">
-        <v>995.9506728057374</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.8791647482714</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X25" t="n">
-        <v>625.3202087220412</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y25" t="n">
-        <v>404.5276295785111</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733129</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>325.2978374347314</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="D29" t="n">
-        <v>819.715945170047</v>
+        <v>1213.423320264159</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718028</v>
+        <v>1213.423320264159</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>802.4374154745515</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>384.4736073727383</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>57.27888740874118</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="D31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="E31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>63.83231577354613</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>63.83231577354613</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.1394333084169</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1328.309493689272</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2478.514423990285</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X32" t="n">
-        <v>2105.048665729205</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y32" t="n">
-        <v>1714.909333753394</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1310.833184497836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.833184497836</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2663.935770178162</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2487.758282492332</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2269.123615464395</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2015.361830102486</v>
+        <v>2008.049442644265</v>
       </c>
       <c r="V35" t="n">
-        <v>1684.298942758915</v>
+        <v>2008.049442644265</v>
       </c>
       <c r="W35" t="n">
-        <v>1684.298942758915</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="X35" t="n">
-        <v>1310.833184497836</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y35" t="n">
-        <v>1310.833184497836</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2549.235997435829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757142</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.54400078133</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1328.309493689272</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
         <v>1268.68094731003</v>
@@ -7402,16 +7402,16 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990286</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2478.514423990286</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.514423990286</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X41" t="n">
-        <v>2105.048665729206</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1714.909333753394</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>892.8693763960225</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>892.8693763960225</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D44" t="n">
-        <v>534.603677789272</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>695.1413138598509</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>277.1775057580378</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1364.743608328862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>991.2778500677825</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>892.8693763960225</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.9192350259436</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>312.0408247018197</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515267</v>
+        <v>301.2485028631348</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221034</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>125.9522764622533</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>165.8617568640525</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H5" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>54.23751747000892</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326066</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124221</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23038,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>150.6253511395828</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>8.345784898301531</v>
+        <v>1.217012830710672</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>76.04605164210253</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.19086992013905</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.3804482281455</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>99.9695163379796</v>
+        <v>12.91536592719606</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23554,13 +23554,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23709,16 +23709,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>251.8295124642061</v>
       </c>
       <c r="E17" t="n">
-        <v>173.9247838990089</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>83.02542937364133</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>217.3509477685735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.5345076483014</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>139.392488079263</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24147,10 +24147,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>56.82580834555233</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24211,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>242.7556433076703</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.2961108691652</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>133.0270685759261</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>307.8238960328066</v>
       </c>
     </row>
     <row r="27">
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
-        <v>152.847313070706</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>148.6287697123683</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,16 +24739,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>27.16725215060541</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.3804482281453</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>247.1395024554453</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>42.20549040893428</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>231.8063182229436</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.59721494315178</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>14.35795135951301</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>128.057140389013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049790002</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>137.2103233994936</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>306.2406308555571</v>
+        <v>168.6245956761329</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168084</v>
+        <v>47.83987471325037</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.9205940660605</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.8135497210112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.49548950841395</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.047042546</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="13">
@@ -26325,7 +26325,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26340,22 +26340,22 @@
         <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="P2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376166</v>
@@ -26493,13 +26493,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26508,7 +26508,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052517</v>
+        <v>-8519.705387987891</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.73676360029</v>
+        <v>72249.72614355983</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360027</v>
+        <v>72249.7261435598</v>
       </c>
       <c r="E6" t="n">
-        <v>-251268.6725928592</v>
+        <v>-257337.0863386784</v>
       </c>
       <c r="F6" t="n">
-        <v>181577.5014501368</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="G6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="H6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="I6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="J6" t="n">
-        <v>118517.5588510307</v>
+        <v>112449.1451052116</v>
       </c>
       <c r="K6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="L6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="M6" t="n">
-        <v>73604.14077607874</v>
+        <v>67535.72703025962</v>
       </c>
       <c r="N6" t="n">
-        <v>181577.501450137</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="O6" t="n">
-        <v>181577.501450137</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="P6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26755,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="D4" t="n">
         <v>241.014288877659</v>
@@ -26807,28 +26807,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32077,7 +32077,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32092,10 +32092,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P15" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32335,19 +32335,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653216</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32566,25 +32566,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578332</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33511,28 +33511,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391989</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
-        <v>87.78329382423905</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34459,28 +34459,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578336</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798014</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681934</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="O9" t="n">
         <v>241.014288877659</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,10 +35740,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901183</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,16 +36445,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901187</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757146.5514982929</v>
+        <v>817982.0264099928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204405.4581289311</v>
+        <v>198013.9658656686</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8069060.157833982</v>
+        <v>8069060.157833984</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.7990089648823</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>58.39471844666255</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.4280676246903</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>234.2530470757135</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>287.54023075833</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.55095684449111</v>
       </c>
       <c r="H13" t="n">
-        <v>9.790440613649634</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>139.0159503176652</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>38.20757304512173</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.9092399153628</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>71.30002018062869</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>102.8535291564769</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>164.1944522398488</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.3828938949071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>49.36927155117476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>70.18226380646165</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>6.028559943668204</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>371.5522166772613</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>7.456147600969725</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>70.18226380646165</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>341.9065335291793</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.41404262324698</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.302546532492958</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.741167782566</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.790440613649851</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>312.4775512117487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>81.1220065286376</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364051</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>120.6931758042659</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>236.8662161487763</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>240.6235099003704</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>190.541935070641</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>249.02761525656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>196.6482960948747</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>235.1742711099286</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.57678144609365</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>238.4419995287274</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>221.0021786982966</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>175.5940282806595</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4194,10 +4194,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4512,10 +4512,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984126</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4582,37 +4582,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185848</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424087</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424087</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424087</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.5167634983088</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.8095319084026</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084026</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>781.413677897285</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106358</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470249</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152822</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711822</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564938</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729607</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729607</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729607</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>122.296149021135</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271062</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729607</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729607</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.0434248788472</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C9" t="n">
-        <v>178.0434248788472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>178.0434248788472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363992</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8095319084027</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972852</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.870560869402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>761.870560869402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>761.870560869402</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>761.870560869402</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>554.0190606638691</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.2587618989152</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.8926947117852</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1189.186725361503</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1189.186725361503</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>1563.476704221264</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X11" t="n">
-        <v>1273.032026687597</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y11" t="n">
-        <v>882.8926947117852</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C13" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D13" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F13" t="n">
-        <v>63.8323157735459</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G13" t="n">
-        <v>63.8323157735459</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5235,16 +5235,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X13" t="n">
-        <v>210.7222632714563</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.7222632714563</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1778.063616086466</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C14" t="n">
-        <v>1409.101099146055</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D14" t="n">
-        <v>1409.101099146055</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>1023.312846547811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>612.326941758203</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3631336563899</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3631336563899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224075</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2520.971603332393</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="W14" t="n">
-        <v>2168.202948062278</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="X14" t="n">
-        <v>2168.202948062278</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.063616086466</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5372,28 +5372,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5475,13 +5475,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>722.2873163082934</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C17" t="n">
-        <v>722.2873163082934</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D17" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
         <v>207.4089578252748</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545185</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X17" t="n">
-        <v>1112.426648284105</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y17" t="n">
-        <v>722.2873163082934</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
@@ -5588,22 +5588,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1851.37379586972</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>63.50052796378793</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>562.2760021459809</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1199.13500546934</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C20" t="n">
-        <v>830.1724885289282</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="D20" t="n">
-        <v>471.9067899221776</v>
+        <v>900.585090270009</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>514.7968376717647</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>103.8109328821571</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>103.8109328821571</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,7 +5752,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5764,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>2092.422847177208</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W20" t="n">
-        <v>1739.654191907093</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X20" t="n">
-        <v>1366.188433646014</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y20" t="n">
-        <v>1366.188433646014</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5846,10 +5846,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6939024587812</v>
+        <v>657.237808644352</v>
       </c>
       <c r="C22" t="n">
-        <v>365.6939024587812</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D22" t="n">
-        <v>365.6939024587812</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E22" t="n">
-        <v>217.7808088763881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.875667274027</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.875667274027</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.875667274027</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.014999249838</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W23" t="n">
-        <v>1986.014999249838</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X23" t="n">
-        <v>1986.014999249838</v>
+        <v>1738.858660051664</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.875667274027</v>
+        <v>1738.858660051664</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6065,46 +6065,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>635.1915732143555</v>
+        <v>657.237808644352</v>
       </c>
       <c r="C25" t="n">
-        <v>635.1915732143555</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D25" t="n">
-        <v>485.0749338020197</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E25" t="n">
-        <v>337.1618402196266</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F25" t="n">
         <v>190.2718927217162</v>
@@ -6144,10 +6144,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1251.855211652197</v>
+        <v>1553.852279424831</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6259,19 +6259,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.527073573122</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X26" t="n">
-        <v>1331.061315312042</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y26" t="n">
-        <v>1251.855211652197</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6317,37 +6317,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1571.689018870909</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>1571.689018870909</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>1213.423320264159</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>1213.423320264159</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>802.4374154745515</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>384.4736073727383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>57.27888740874118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6475,7 +6475,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6484,31 +6484,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1958.288858935031</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1958.288858935031</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.7222632714565</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C31" t="n">
-        <v>210.7222632714565</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="D31" t="n">
-        <v>210.7222632714565</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="E31" t="n">
-        <v>210.7222632714565</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>63.83231577354613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694738</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7222632714565</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.7222632714565</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.314837422907</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.314837422907</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748109</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487029</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y32" t="n">
-        <v>1970.914677487029</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1851.373795869721</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O33" t="n">
-        <v>2291.509718890065</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C35" t="n">
         <v>1268.68094731003</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2008.049442644265</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>2008.049442644265</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W35" t="n">
-        <v>1655.280787374151</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X35" t="n">
-        <v>1655.280787374151</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,10 +7028,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
         <v>2627.754532504893</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7186,37 +7186,37 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
         <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284806</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X38" t="n">
-        <v>1520.223993023727</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y38" t="n">
         <v>1268.68094731003</v>
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1825.581288436855</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C41" t="n">
-        <v>1626.94664591678</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W41" t="n">
-        <v>2212.181128500977</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X41" t="n">
-        <v>2212.181128500977</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y41" t="n">
-        <v>2212.181128500977</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,7 +7487,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7511,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D43" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E43" t="n">
-        <v>337.1618402196266</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F43" t="n">
-        <v>190.2718927217162</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H43" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y43" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.915471247703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D44" t="n">
-        <v>1491.915471247703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.127218649458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>695.1413138598509</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>277.1775057580378</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="45">
@@ -7742,10 +7742,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7812,37 +7812,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W46" t="n">
         <v>53.94298182036446</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0408247018197</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631348</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.3570488013777</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640525</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326066</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>150.6253511395828</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>1.217012830710672</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>172.6229986659979</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>82.19086992013905</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>126.7588454145598</v>
       </c>
       <c r="H13" t="n">
-        <v>146.3804482281455</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23475,16 +23475,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.91536592719606</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>289.5446854250132</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>162.675413436732</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>311.4338214828519</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>251.8295124642061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23937,19 +23937,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>242.6756726418388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>54.39020111224602</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3509477685735</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>274.5535012131824</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>109.6497163754756</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.392488079263</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853699</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>10.37815339500048</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.2961108691652</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>109.6497163754756</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>133.0270685759261</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>40.82730813430129</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.8238960328066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646965</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>148.6287697123683</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,16 +24739,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>16.69279486400322</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>146.3804482281453</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>42.20549040893428</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>325.7540392130738</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,7 +24976,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401875</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>262.0406658592146</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>14.35795135951301</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>11.51413342345765</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>158.699033646772</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.2103233994936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>168.6245956761329</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>134.5568295685404</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047552</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>47.83987471325037</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>102.9205940660605</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>194.1370723978095</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.047042546</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26337,10 +26337,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126062</v>
@@ -26352,10 +26352,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="P2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26490,16 +26490,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26508,7 +26508,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987891</v>
+        <v>2476.504170048499</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355983</v>
+        <v>83245.93570159622</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.7261435598</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="E6" t="n">
-        <v>-257337.0863386784</v>
+        <v>-251875.5139674411</v>
       </c>
       <c r="F6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.6600755549</v>
       </c>
       <c r="G6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052116</v>
+        <v>117910.7174764488</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="M6" t="n">
-        <v>67535.72703025962</v>
+        <v>72997.29940149689</v>
       </c>
       <c r="N6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="O6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.6600755551</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
     </row>
   </sheetData>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,16 +26810,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31861,7 +31861,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32092,13 +32092,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32314,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32326,7 +32326,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32566,7 +32566,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>177.5954266578332</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
@@ -32806,10 +32806,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -33037,7 +33037,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034983</v>
@@ -33204,7 +33204,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044134</v>
       </c>
       <c r="R29" t="n">
         <v>95.39071536633799</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33511,28 +33511,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>195.5988322391989</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33748,28 +33748,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34462,25 +34462,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>177.5954266578336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798014</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798015</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.29709682323572</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>428.8615014901183</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>543.5994944994192</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>428.8615014901187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
